--- a/experiment/csv/test_Utility_cost.xlsx
+++ b/experiment/csv/test_Utility_cost.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baz/Google Drive/Self-Healing MicroService Architecture/csv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baz/Google Drive/Self-Healing MicroService Architecture/experiment/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5211684-3E82-744A-A3C2-5EB22F3ADDED}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2FC0F9-E82D-2347-A150-301A7B9E9D2E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="460" windowWidth="27640" windowHeight="15800" xr2:uid="{67509B43-FBF2-484E-99D5-A9AAC65F4A1A}"/>
+    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="15800" xr2:uid="{67509B43-FBF2-484E-99D5-A9AAC65F4A1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,21 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>cpu</t>
+    <t>Utility(cpu)</t>
   </si>
   <si>
-    <t>cpu prediction</t>
+    <t>CPU</t>
   </si>
   <si>
-    <t>cpu_anomalyscore</t>
+    <t>CPU prediction</t>
   </si>
   <si>
-    <t>cpu_anamolyLikelihood</t>
+    <t>Anamoly Likelihood</t>
   </si>
   <si>
-    <t>Uc</t>
+    <t>Anomaly Score</t>
+  </si>
+  <si>
+    <t>Cost(Cpu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change rate </t>
   </si>
 </sst>
 </file>
@@ -391,36 +397,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F034FE4-A725-3C4E-BFDF-C3A42155036D}">
-  <dimension ref="A1:F300"/>
+  <dimension ref="A1:G300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>81.099999999999994</v>
       </c>
@@ -437,11 +452,13 @@
         <v>81.099999999999994</v>
       </c>
       <c r="F2">
-        <f>ROUND((A2-B2)*C2*D2/E2*5.34,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>15.3</v>
       </c>
@@ -458,11 +475,13 @@
         <v>15.3</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="0">ROUND((A3-B3)*C3*D3/E3*5.34,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>79.400000000000006</v>
       </c>
@@ -479,11 +498,13 @@
         <v>47.35</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>17.899999999999999</v>
       </c>
@@ -500,11 +521,13 @@
         <v>48.65</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G5">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -521,11 +544,13 @@
         <v>41.7</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G6">
         <v>-5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>44.1</v>
       </c>
@@ -542,11 +567,13 @@
         <v>44.1</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>84.5</v>
       </c>
@@ -563,11 +590,13 @@
         <v>51.2</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>28.3</v>
       </c>
@@ -584,11 +613,13 @@
         <v>16.149999999999999</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>73.099999999999994</v>
       </c>
@@ -605,11 +636,13 @@
         <v>50.699999999999903</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>18.899999999999999</v>
       </c>
@@ -626,11 +659,13 @@
         <v>46</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G11">
         <v>-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1.5</v>
       </c>
@@ -647,11 +682,13 @@
         <v>22.8</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G12">
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>53.3</v>
       </c>
@@ -668,11 +705,13 @@
         <v>68.900000000000006</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G13">
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>65.599999999999994</v>
       </c>
@@ -689,11 +728,13 @@
         <v>42.25</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11.1</v>
       </c>
@@ -710,11 +751,13 @@
         <v>6.3</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G15">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>83.5</v>
       </c>
@@ -731,11 +774,13 @@
         <v>51.2</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>43</v>
       </c>
@@ -752,11 +797,13 @@
         <v>54.3</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G17">
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>7.5</v>
       </c>
@@ -773,11 +820,13 @@
         <v>45.5</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G18">
         <v>-4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>46.2</v>
       </c>
@@ -794,11 +843,13 @@
         <v>26.85</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>64.400000000000006</v>
       </c>
@@ -815,11 +866,13 @@
         <v>37.75</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>12.8</v>
       </c>
@@ -836,11 +889,13 @@
         <v>29.5</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>73.3</v>
       </c>
@@ -857,11 +912,13 @@
         <v>58.15</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>45.7</v>
       </c>
@@ -878,11 +935,13 @@
         <v>55.05</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G23">
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6.1</v>
       </c>
@@ -899,11 +958,13 @@
         <v>29.7</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>45.5</v>
       </c>
@@ -920,11 +981,13 @@
         <v>25.8</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>67.7</v>
       </c>
@@ -941,11 +1004,13 @@
         <v>40.25</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5.0999999999999996</v>
       </c>
@@ -962,11 +1027,13 @@
         <v>25.37</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G27">
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>64.3</v>
       </c>
@@ -983,11 +1050,13 @@
         <v>34.699999999999903</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G28">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>49.2</v>
       </c>
@@ -1004,11 +1073,13 @@
         <v>58.45</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G29">
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>16.7</v>
       </c>
@@ -1025,11 +1096,13 @@
         <v>40.534999999999997</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G30">
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>93.9</v>
       </c>
@@ -1046,11 +1119,13 @@
         <v>68.45</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>100</v>
       </c>
@@ -1067,11 +1142,13 @@
         <v>71.5</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>100</v>
       </c>
@@ -1088,11 +1165,13 @@
         <v>100</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>100</v>
       </c>
@@ -1109,11 +1188,13 @@
         <v>100</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>100</v>
       </c>
@@ -1130,11 +1211,13 @@
         <v>100</v>
       </c>
       <c r="F35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>100</v>
       </c>
@@ -1151,11 +1234,13 @@
         <v>100</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>100</v>
       </c>
@@ -1172,11 +1257,13 @@
         <v>100</v>
       </c>
       <c r="F37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>100</v>
       </c>
@@ -1193,11 +1280,13 @@
         <v>100</v>
       </c>
       <c r="F38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>100</v>
       </c>
@@ -1214,11 +1303,13 @@
         <v>100</v>
       </c>
       <c r="F39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>100</v>
       </c>
@@ -1235,11 +1326,13 @@
         <v>100</v>
       </c>
       <c r="F40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>100</v>
       </c>
@@ -1256,11 +1349,13 @@
         <v>100</v>
       </c>
       <c r="F41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>100</v>
       </c>
@@ -1277,11 +1372,13 @@
         <v>100</v>
       </c>
       <c r="F42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>100</v>
       </c>
@@ -1298,11 +1395,13 @@
         <v>100</v>
       </c>
       <c r="F43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>100</v>
       </c>
@@ -1319,11 +1418,13 @@
         <v>100</v>
       </c>
       <c r="F44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>100</v>
       </c>
@@ -1340,11 +1441,13 @@
         <v>100</v>
       </c>
       <c r="F45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>100</v>
       </c>
@@ -1361,11 +1464,13 @@
         <v>100</v>
       </c>
       <c r="F46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>100</v>
       </c>
@@ -1382,11 +1487,13 @@
         <v>100</v>
       </c>
       <c r="F47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>100</v>
       </c>
@@ -1403,11 +1510,13 @@
         <v>100</v>
       </c>
       <c r="F48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>100</v>
       </c>
@@ -1424,11 +1533,13 @@
         <v>100</v>
       </c>
       <c r="F49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>100</v>
       </c>
@@ -1445,11 +1556,13 @@
         <v>100</v>
       </c>
       <c r="F50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>100</v>
       </c>
@@ -1466,11 +1579,13 @@
         <v>100</v>
       </c>
       <c r="F51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>100</v>
       </c>
@@ -1487,11 +1602,13 @@
         <v>100</v>
       </c>
       <c r="F52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>100</v>
       </c>
@@ -1508,11 +1625,13 @@
         <v>100</v>
       </c>
       <c r="F53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>100</v>
       </c>
@@ -1529,11 +1648,13 @@
         <v>100</v>
       </c>
       <c r="F54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>100</v>
       </c>
@@ -1550,11 +1671,13 @@
         <v>100</v>
       </c>
       <c r="F55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>100</v>
       </c>
@@ -1571,11 +1694,13 @@
         <v>100</v>
       </c>
       <c r="F56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>68.599999999999994</v>
       </c>
@@ -1592,11 +1717,13 @@
         <v>58.9</v>
       </c>
       <c r="F57">
-        <f t="shared" si="0"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>46.9</v>
       </c>
@@ -1613,11 +1740,13 @@
         <v>31.799999999999901</v>
       </c>
       <c r="F58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>56.2</v>
       </c>
@@ -1634,11 +1763,13 @@
         <v>36.450000000000003</v>
       </c>
       <c r="F59">
-        <f t="shared" si="0"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G59">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>7</v>
       </c>
@@ -1655,11 +1786,13 @@
         <v>50.45</v>
       </c>
       <c r="F60">
-        <f t="shared" si="0"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G60">
         <v>-5</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3.6</v>
       </c>
@@ -1676,11 +1809,13 @@
         <v>33.984999999999999</v>
       </c>
       <c r="F61">
-        <f t="shared" si="0"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G61">
         <v>-5</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>39.799999999999997</v>
       </c>
@@ -1697,11 +1832,13 @@
         <v>48</v>
       </c>
       <c r="F62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>80.400000000000006</v>
       </c>
@@ -1718,11 +1855,13 @@
         <v>63.02</v>
       </c>
       <c r="F63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>35.700000000000003</v>
       </c>
@@ -1739,11 +1878,13 @@
         <v>58.05</v>
       </c>
       <c r="F64">
-        <f t="shared" si="0"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G64">
         <v>-1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64.099999999999994</v>
       </c>
@@ -1760,11 +1901,13 @@
         <v>55.254999999999903</v>
       </c>
       <c r="F65">
-        <f>ROUND((A65-B65)*C65*D65/E65*5.34,0)</f>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>11</v>
       </c>
@@ -1781,11 +1924,13 @@
         <v>25.4</v>
       </c>
       <c r="F66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2.5</v>
       </c>
@@ -1802,11 +1947,13 @@
         <v>21.15</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F86" si="1">ROUND((A67-B67)*C67*D67/E67*5.34,0)</f>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G67">
         <v>-1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>45.4</v>
       </c>
@@ -1823,11 +1970,13 @@
         <v>54.844499999999996</v>
       </c>
       <c r="F68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>71.099999999999994</v>
       </c>
@@ -1844,11 +1993,13 @@
         <v>41.084999999999901</v>
       </c>
       <c r="F69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>30.3</v>
       </c>
@@ -1865,11 +2016,13 @@
         <v>51.73</v>
       </c>
       <c r="F70">
-        <f t="shared" si="1"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G70">
         <v>-2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70.7</v>
       </c>
@@ -1886,11 +2039,13 @@
         <v>50.5</v>
       </c>
       <c r="F71">
-        <f t="shared" si="1"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G71">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>9.1</v>
       </c>
@@ -1907,11 +2062,13 @@
         <v>9.1</v>
       </c>
       <c r="F72">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>11.2</v>
       </c>
@@ -1928,11 +2085,13 @@
         <v>28.384</v>
       </c>
       <c r="F73">
-        <f t="shared" si="1"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G73">
         <v>-1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>20.3</v>
       </c>
@@ -1949,11 +2108,13 @@
         <v>57.1</v>
       </c>
       <c r="F74">
-        <f t="shared" si="1"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G74">
         <v>-2</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>77</v>
       </c>
@@ -1970,11 +2131,13 @@
         <v>56.35</v>
       </c>
       <c r="F75">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>30.9</v>
       </c>
@@ -1991,11 +2154,13 @@
         <v>50.94</v>
       </c>
       <c r="F76">
-        <f t="shared" si="1"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G76">
         <v>-1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>79.599999999999994</v>
       </c>
@@ -2012,11 +2177,13 @@
         <v>55.04</v>
       </c>
       <c r="F77">
-        <f t="shared" si="1"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G77">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>15.6</v>
       </c>
@@ -2033,11 +2200,13 @@
         <v>46.3</v>
       </c>
       <c r="F78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>5.6</v>
       </c>
@@ -2054,11 +2223,13 @@
         <v>5.5999999999999899</v>
       </c>
       <c r="F79">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>8.6</v>
       </c>
@@ -2075,11 +2246,13 @@
         <v>8.5999999999999908</v>
       </c>
       <c r="F80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>76.7</v>
       </c>
@@ -2096,11 +2269,13 @@
         <v>46.045000000000002</v>
       </c>
       <c r="F81">
-        <f t="shared" si="1"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G81">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>26.5</v>
       </c>
@@ -2117,11 +2292,13 @@
         <v>52.979999999999897</v>
       </c>
       <c r="F82">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81.400000000000006</v>
       </c>
@@ -2138,11 +2315,13 @@
         <v>53.95</v>
       </c>
       <c r="F83">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>8.1999999999999993</v>
       </c>
@@ -2159,11 +2338,13 @@
         <v>8.1999999999999904</v>
       </c>
       <c r="F84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>6.1</v>
       </c>
@@ -2180,11 +2361,13 @@
         <v>6.1</v>
       </c>
       <c r="F85">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>22.4</v>
       </c>
@@ -2201,11 +2384,13 @@
         <v>13.8249999999999</v>
       </c>
       <c r="F86">
-        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="G86">
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>70.7</v>
       </c>
@@ -2222,11 +2407,13 @@
         <v>39.712499999999899</v>
       </c>
       <c r="F87">
-        <f>ROUND((A87-B87)*C87*D87/E87*5.34,0)</f>
+        <v>24</v>
+      </c>
+      <c r="G87">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>19.399999999999999</v>
       </c>
@@ -2243,11 +2430,13 @@
         <v>45.147999999999897</v>
       </c>
       <c r="F88">
-        <f t="shared" ref="F88:F110" si="2">ROUND((A88-B88)*C88*D88/E88*5.34,0)</f>
+        <v>24</v>
+      </c>
+      <c r="G88">
         <v>-1</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>69.8</v>
       </c>
@@ -2264,11 +2453,13 @@
         <v>44.6</v>
       </c>
       <c r="F89">
-        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="G89">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>11.8</v>
       </c>
@@ -2285,11 +2476,13 @@
         <v>40.799999999999898</v>
       </c>
       <c r="F90">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2.5</v>
       </c>
@@ -2306,11 +2499,13 @@
         <v>2.5</v>
       </c>
       <c r="F91">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>28.9</v>
       </c>
@@ -2327,11 +2522,13 @@
         <v>55.044999999999902</v>
       </c>
       <c r="F92">
-        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="G92">
         <v>-2</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>71.599999999999994</v>
       </c>
@@ -2348,11 +2545,13 @@
         <v>71.599999999999895</v>
       </c>
       <c r="F93">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>13.8</v>
       </c>
@@ -2369,11 +2568,13 @@
         <v>8.15</v>
       </c>
       <c r="F94">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>79.5</v>
       </c>
@@ -2390,11 +2591,13 @@
         <v>44.112499999999898</v>
       </c>
       <c r="F95">
-        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="G95">
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>10.7</v>
       </c>
@@ -2411,11 +2614,13 @@
         <v>6.6</v>
       </c>
       <c r="F96">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>7.7</v>
       </c>
@@ -2432,11 +2637,13 @@
         <v>7.7</v>
       </c>
       <c r="F97">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>25.8</v>
       </c>
@@ -2453,11 +2660,13 @@
         <v>48.7</v>
       </c>
       <c r="F98">
-        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="G98">
         <v>-2</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>70.8</v>
       </c>
@@ -2474,11 +2683,13 @@
         <v>70.799999999999898</v>
       </c>
       <c r="F99">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>28.6</v>
       </c>
@@ -2495,11 +2706,13 @@
         <v>49.733599999999903</v>
       </c>
       <c r="F100">
-        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="G100">
         <v>-1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>80.5</v>
       </c>
@@ -2516,11 +2729,13 @@
         <v>80.5</v>
       </c>
       <c r="F101">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>13.5</v>
       </c>
@@ -2537,11 +2752,13 @@
         <v>10.53</v>
       </c>
       <c r="F102">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>6.1</v>
       </c>
@@ -2558,11 +2775,13 @@
         <v>6.1</v>
       </c>
       <c r="F103">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>15.7</v>
       </c>
@@ -2579,11 +2798,13 @@
         <v>54.799999999999898</v>
       </c>
       <c r="F104">
-        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="G104">
         <v>-2</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>74.7</v>
       </c>
@@ -2600,11 +2821,13 @@
         <v>43.25</v>
       </c>
       <c r="F105">
-        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="G105">
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>27.3</v>
       </c>
@@ -2621,11 +2844,13 @@
         <v>53.865000000000002</v>
       </c>
       <c r="F106">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>78.5</v>
       </c>
@@ -2642,11 +2867,13 @@
         <v>78.5</v>
       </c>
       <c r="F107">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>10.8</v>
       </c>
@@ -2663,11 +2890,13 @@
         <v>10.8</v>
       </c>
       <c r="F108">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>4.0999999999999996</v>
       </c>
@@ -2684,11 +2913,13 @@
         <v>4.0999999999999899</v>
       </c>
       <c r="F109">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>19.7</v>
       </c>
@@ -2705,11 +2936,13 @@
         <v>47.2</v>
       </c>
       <c r="F110">
-        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="G110">
         <v>-2</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>70</v>
       </c>
@@ -2726,11 +2959,13 @@
         <v>70</v>
       </c>
       <c r="F111">
-        <f>ROUND((A111-B111)*C111*D111/E111*5.34,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>26.2</v>
       </c>
@@ -2747,11 +2982,13 @@
         <v>26.1999999999999</v>
       </c>
       <c r="F112">
-        <f t="shared" ref="F112:F124" si="3">ROUND((A112-B112)*C112*D112/E112*5.34,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>79.900000000000006</v>
       </c>
@@ -2768,11 +3005,13 @@
         <v>45.415205</v>
       </c>
       <c r="F113">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>10.199999999999999</v>
       </c>
@@ -2789,11 +3028,13 @@
         <v>15.25</v>
       </c>
       <c r="F114">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>7.1</v>
       </c>
@@ -2810,11 +3051,13 @@
         <v>7.0999999999999899</v>
       </c>
       <c r="F115">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>19.2</v>
       </c>
@@ -2831,11 +3074,13 @@
         <v>44.529999999999902</v>
       </c>
       <c r="F116">
-        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="G116">
         <v>-2</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>86.7</v>
       </c>
@@ -2852,11 +3097,13 @@
         <v>86.7</v>
       </c>
       <c r="F117">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>28.4</v>
       </c>
@@ -2873,11 +3120,13 @@
         <v>28.399999999999899</v>
       </c>
       <c r="F118">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>74.599999999999994</v>
       </c>
@@ -2894,11 +3143,13 @@
         <v>50.95</v>
       </c>
       <c r="F119">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>8.1</v>
       </c>
@@ -2915,11 +3166,13 @@
         <v>13.751499999999901</v>
       </c>
       <c r="F120">
-        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="G120">
         <v>-1</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>6</v>
       </c>
@@ -2936,11 +3189,13 @@
         <v>12.7014999999999</v>
       </c>
       <c r="F121">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>6.7</v>
       </c>
@@ -2957,11 +3212,13 @@
         <v>6.4313049999999903</v>
       </c>
       <c r="F122">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>81.8</v>
       </c>
@@ -2978,11 +3235,13 @@
         <v>81.799999999999898</v>
       </c>
       <c r="F123">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>31.4</v>
       </c>
@@ -2999,11 +3258,13 @@
         <v>31.399999999999899</v>
       </c>
       <c r="F124">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>82</v>
       </c>
@@ -3020,11 +3281,13 @@
         <v>82</v>
       </c>
       <c r="F125">
-        <f>ROUND((A125-B125)*C125*D125/E125*5.34,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>15.3</v>
       </c>
@@ -3041,11 +3304,13 @@
         <v>51</v>
       </c>
       <c r="F126">
-        <f t="shared" ref="F126:F189" si="4">ROUND((A126-B126)*C126*D126/E126*5.34,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>8.6999999999999993</v>
       </c>
@@ -3062,11 +3327,13 @@
         <v>7.5119134999999897</v>
       </c>
       <c r="F127">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>6.5</v>
       </c>
@@ -3083,11 +3350,13 @@
         <v>6.4119134999999901</v>
       </c>
       <c r="F128">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>78.8</v>
       </c>
@@ -3104,11 +3373,13 @@
         <v>78.799999999999898</v>
       </c>
       <c r="F129">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>22.7</v>
       </c>
@@ -3125,11 +3396,13 @@
         <v>50.644999999999897</v>
       </c>
       <c r="F130">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>82.5</v>
       </c>
@@ -3146,11 +3419,13 @@
         <v>82.5</v>
       </c>
       <c r="F131">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>22.6</v>
       </c>
@@ -3167,11 +3442,13 @@
         <v>52.549999999999898</v>
       </c>
       <c r="F132">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>6.1</v>
       </c>
@@ -3188,11 +3465,13 @@
         <v>6.23833944999999</v>
       </c>
       <c r="F133">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>8.6</v>
       </c>
@@ -3209,11 +3488,13 @@
         <v>7.44683761499999</v>
       </c>
       <c r="F134">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>79.900000000000006</v>
       </c>
@@ -3230,11 +3511,13 @@
         <v>51.211500000000001</v>
       </c>
       <c r="F135">
-        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="G135">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>20.9</v>
       </c>
@@ -3251,11 +3534,13 @@
         <v>13.596837614999901</v>
       </c>
       <c r="F136">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>79.7</v>
       </c>
@@ -3272,11 +3557,13 @@
         <v>79.7</v>
       </c>
       <c r="F137">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>29.4</v>
       </c>
@@ -3293,11 +3580,13 @@
         <v>29.4</v>
       </c>
       <c r="F138">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>8.3000000000000007</v>
       </c>
@@ -3314,11 +3603,13 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="F139">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>8.6999999999999993</v>
       </c>
@@ -3335,11 +3626,13 @@
         <v>47.7</v>
       </c>
       <c r="F140">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>82.5</v>
       </c>
@@ -3356,11 +3649,13 @@
         <v>82.5</v>
       </c>
       <c r="F141">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>18.399999999999999</v>
       </c>
@@ -3377,11 +3672,13 @@
         <v>48.970199999999899</v>
       </c>
       <c r="F142">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>64.900000000000006</v>
       </c>
@@ -3398,11 +3695,13 @@
         <v>64.900000000000006</v>
       </c>
       <c r="F143">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>32</v>
       </c>
@@ -3419,11 +3718,13 @@
         <v>32</v>
       </c>
       <c r="F144">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2.5</v>
       </c>
@@ -3440,11 +3741,13 @@
         <v>5.5536512499999899</v>
       </c>
       <c r="F145">
-        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="G145">
         <v>-6</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>12.8</v>
       </c>
@@ -3461,11 +3764,13 @@
         <v>10.703651249999901</v>
       </c>
       <c r="F146">
-        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="G146">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>69.900000000000006</v>
       </c>
@@ -3482,11 +3787,13 @@
         <v>69.900000000000006</v>
       </c>
       <c r="F147">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>29.1</v>
       </c>
@@ -3503,11 +3810,13 @@
         <v>29.1</v>
       </c>
       <c r="F148">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>69.599999999999994</v>
       </c>
@@ -3524,11 +3833,13 @@
         <v>49.332499999999897</v>
       </c>
       <c r="F149">
-        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="G149">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>41.8</v>
       </c>
@@ -3545,11 +3856,13 @@
         <v>56.333599999999898</v>
       </c>
       <c r="F150">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>11.3</v>
       </c>
@@ -3566,11 +3879,13 @@
         <v>9.9536512499999894</v>
       </c>
       <c r="F151">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>4.0999999999999996</v>
       </c>
@@ -3587,11 +3902,13 @@
         <v>28.6999999999999</v>
       </c>
       <c r="F152">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>68</v>
       </c>
@@ -3608,11 +3925,13 @@
         <v>68</v>
       </c>
       <c r="F153">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>38.700000000000003</v>
       </c>
@@ -3629,11 +3948,13 @@
         <v>24.8706435</v>
       </c>
       <c r="F154">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>65</v>
       </c>
@@ -3650,11 +3971,13 @@
         <v>65</v>
       </c>
       <c r="F155">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>65.599999999999994</v>
       </c>
@@ -3671,11 +3994,13 @@
         <v>65.599999999999895</v>
       </c>
       <c r="F156">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2.5</v>
       </c>
@@ -3692,11 +4017,13 @@
         <v>2.5</v>
       </c>
       <c r="F157">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>6.7</v>
       </c>
@@ -3713,11 +4040,13 @@
         <v>7.1627000000000001</v>
       </c>
       <c r="F158">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>56.5</v>
       </c>
@@ -3734,11 +4063,13 @@
         <v>31.4577863304999</v>
       </c>
       <c r="F159">
-        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="G159">
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>37.5</v>
       </c>
@@ -3755,11 +4086,13 @@
         <v>51.4355499999999</v>
       </c>
       <c r="F160">
-        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="G160">
         <v>-3</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>52.3</v>
       </c>
@@ -3776,11 +4109,13 @@
         <v>58.835549999999898</v>
       </c>
       <c r="F161">
-        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="G161">
         <v>-1</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>60.6</v>
       </c>
@@ -3797,11 +4132,13 @@
         <v>49.049999999999898</v>
       </c>
       <c r="F162">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>5.0999999999999996</v>
       </c>
@@ -3818,11 +4155,13 @@
         <v>5.7577863304999903</v>
       </c>
       <c r="F163">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>5.0999999999999996</v>
       </c>
@@ -3839,11 +4178,13 @@
         <v>36.759999999999899</v>
       </c>
       <c r="F164">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>60.1</v>
       </c>
@@ -3860,11 +4201,13 @@
         <v>32.6367499999999</v>
       </c>
       <c r="F165">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>41.7</v>
       </c>
@@ -3881,11 +4224,13 @@
         <v>47</v>
       </c>
       <c r="F166">
-        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="G166">
         <v>-1</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>40.299999999999997</v>
       </c>
@@ -3902,11 +4247,13 @@
         <v>46.299999999999898</v>
       </c>
       <c r="F167">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>60.1</v>
       </c>
@@ -3923,11 +4270,13 @@
         <v>50.935000000000002</v>
       </c>
       <c r="F168">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>5.6</v>
       </c>
@@ -3944,11 +4293,13 @@
         <v>5.3867499999999904</v>
       </c>
       <c r="F169">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>5.6</v>
       </c>
@@ -3965,11 +4316,13 @@
         <v>32.85</v>
       </c>
       <c r="F170">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>63.3</v>
       </c>
@@ -3986,11 +4339,13 @@
         <v>63.299999999999898</v>
       </c>
       <c r="F171">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>40.200000000000003</v>
       </c>
@@ -4007,11 +4362,13 @@
         <v>50.149999999999899</v>
       </c>
       <c r="F172">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>37.1</v>
       </c>
@@ -4028,11 +4385,13 @@
         <v>48.6</v>
       </c>
       <c r="F173">
-        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="G173">
         <v>-1</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>65.3</v>
       </c>
@@ -4049,11 +4408,13 @@
         <v>65.299999999999898</v>
       </c>
       <c r="F174">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>8</v>
       </c>
@@ -4070,11 +4431,13 @@
         <v>6.69550749999999</v>
       </c>
       <c r="F175">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>10.7</v>
       </c>
@@ -4091,11 +4454,13 @@
         <v>47.1</v>
       </c>
       <c r="F176">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>55.3</v>
       </c>
@@ -4112,11 +4477,13 @@
         <v>57.949999999999903</v>
       </c>
       <c r="F177">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>59.8</v>
       </c>
@@ -4133,11 +4500,13 @@
         <v>32.595507499999897</v>
       </c>
       <c r="F178">
-        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="G178">
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>34.700000000000003</v>
       </c>
@@ -4154,11 +4523,13 @@
         <v>50.024884999999898</v>
       </c>
       <c r="F179">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>63.6</v>
       </c>
@@ -4175,11 +4546,13 @@
         <v>35.668889999999898</v>
       </c>
       <c r="F180">
-        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="G180">
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>9.1</v>
       </c>
@@ -4196,11 +4569,13 @@
         <v>32.200000000000003</v>
       </c>
       <c r="F181">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>4.5</v>
       </c>
@@ -4217,11 +4592,13 @@
         <v>33.899999999999899</v>
       </c>
       <c r="F182">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>54.1</v>
       </c>
@@ -4238,11 +4615,13 @@
         <v>57.055</v>
       </c>
       <c r="F183">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>47.9</v>
       </c>
@@ -4259,11 +4638,13 @@
         <v>53.954999999999899</v>
       </c>
       <c r="F184">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>34.700000000000003</v>
       </c>
@@ -4280,11 +4661,13 @@
         <v>49.391149999999897</v>
       </c>
       <c r="F185">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>69.099999999999994</v>
       </c>
@@ -4301,11 +4684,13 @@
         <v>69.099999999999895</v>
       </c>
       <c r="F186">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>6.6</v>
       </c>
@@ -4322,11 +4707,13 @@
         <v>31.444999999999901</v>
       </c>
       <c r="F187">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>4.5999999999999996</v>
       </c>
@@ -4343,11 +4730,13 @@
         <v>29.349999999999898</v>
       </c>
       <c r="F188">
-        <f>ROUND((A188-B188)*C188*D188/E188*5.34,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>59.1</v>
       </c>
@@ -4364,11 +4753,13 @@
         <v>46.899999999999899</v>
       </c>
       <c r="F189">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>45.3</v>
       </c>
@@ -4385,11 +4776,13 @@
         <v>40</v>
       </c>
       <c r="F190">
-        <f t="shared" ref="F190:F209" si="5">ROUND((A190-B190)*C190*D190/E190*5.34,0)</f>
+        <v>24</v>
+      </c>
+      <c r="G190">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>26.8</v>
       </c>
@@ -4406,11 +4799,13 @@
         <v>48.19164</v>
       </c>
       <c r="F191">
-        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="G191">
         <v>-1</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>69.400000000000006</v>
       </c>
@@ -4427,11 +4822,13 @@
         <v>69.400000000000006</v>
       </c>
       <c r="F192">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>10.1</v>
       </c>
@@ -4448,11 +4845,13 @@
         <v>7.2049949999999896</v>
       </c>
       <c r="F193">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>3</v>
       </c>
@@ -4469,11 +4868,13 @@
         <v>31.05</v>
       </c>
       <c r="F194">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>49.5</v>
       </c>
@@ -4490,11 +4891,13 @@
         <v>38.324999999999903</v>
       </c>
       <c r="F195">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>59.5</v>
       </c>
@@ -4511,11 +4914,13 @@
         <v>52.4938</v>
       </c>
       <c r="F196">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>21.5</v>
       </c>
@@ -4532,11 +4937,13 @@
         <v>45.514147999999899</v>
       </c>
       <c r="F197">
-        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="G197">
         <v>-3</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>70.8</v>
       </c>
@@ -4553,11 +4960,13 @@
         <v>40.4849999999999</v>
       </c>
       <c r="F198">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>9.6</v>
       </c>
@@ -4574,11 +4983,13 @@
         <v>6.50999999999999</v>
       </c>
       <c r="F199">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>23.1</v>
       </c>
@@ -4595,11 +5006,13 @@
         <v>46.973519999999901</v>
       </c>
       <c r="F200">
-        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="G200">
         <v>-3</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>42.4</v>
       </c>
@@ -4616,11 +5029,13 @@
         <v>51.128500000000003</v>
       </c>
       <c r="F201">
-        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="G201">
         <v>-2</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>61.7</v>
       </c>
@@ -4637,11 +5052,13 @@
         <v>35.8494999999999</v>
       </c>
       <c r="F202">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>18.2</v>
       </c>
@@ -4658,11 +5075,13 @@
         <v>30.3</v>
       </c>
       <c r="F203">
-        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="G203">
         <v>-1</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>71.5</v>
       </c>
@@ -4679,11 +5098,13 @@
         <v>40.749499999999998</v>
       </c>
       <c r="F204">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>14.9</v>
       </c>
@@ -4700,11 +5121,13 @@
         <v>9.60499499999999</v>
       </c>
       <c r="F205">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>6.5</v>
       </c>
@@ -4721,11 +5144,13 @@
         <v>5.94550749999999</v>
       </c>
       <c r="F206">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>36.9</v>
       </c>
@@ -4742,11 +5167,13 @@
         <v>53.214147999999902</v>
       </c>
       <c r="F207">
-        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="G207">
         <v>-1</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>70.400000000000006</v>
       </c>
@@ -4763,11 +5190,13 @@
         <v>40.1995</v>
       </c>
       <c r="F208">
-        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="G208">
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>13.3</v>
       </c>
@@ -4784,11 +5213,13 @@
         <v>9.8898153019449904</v>
       </c>
       <c r="F209">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>77.2</v>
       </c>
@@ -4805,11 +5236,13 @@
         <v>47.892499999999899</v>
       </c>
       <c r="F210">
-        <f>ROUND((A210-B210)*C210*D210/E210*5.34,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>15.5</v>
       </c>
@@ -4826,11 +5259,13 @@
         <v>47.520200000000003</v>
       </c>
       <c r="F211">
-        <f t="shared" ref="F211:F216" si="6">ROUND((A211-B211)*C211*D211/E211*5.34,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>8.6</v>
       </c>
@@ -4847,11 +5282,13 @@
         <v>7.5398153019449898</v>
       </c>
       <c r="F212">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>30.3</v>
       </c>
@@ -4868,11 +5305,13 @@
         <v>49.914147999999898</v>
       </c>
       <c r="F213">
-        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="G213">
         <v>-1</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>79.400000000000006</v>
       </c>
@@ -4889,11 +5328,13 @@
         <v>89.7</v>
       </c>
       <c r="F214">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>14.4</v>
       </c>
@@ -4910,11 +5351,13 @@
         <v>11.5542891124999</v>
       </c>
       <c r="F215">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>73.599999999999994</v>
       </c>
@@ -4931,11 +5374,13 @@
         <v>44.469384499999897</v>
       </c>
       <c r="F216">
-        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="G216">
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>17.2</v>
       </c>
@@ -4952,11 +5397,13 @@
         <v>11.839815301944901</v>
       </c>
       <c r="F217">
-        <f>ROUND((A217-B217)*C217*D217/E217*5.34,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>4</v>
       </c>
@@ -4973,11 +5420,13 @@
         <v>4.69550749999999</v>
       </c>
       <c r="F218">
-        <f t="shared" ref="F218:F281" si="7">ROUND((A218-B218)*C218*D218/E218*5.34,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>17.8</v>
       </c>
@@ -4994,11 +5443,13 @@
         <v>11.0084965</v>
       </c>
       <c r="F219">
-        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="G219">
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>82</v>
       </c>
@@ -5015,11 +5466,13 @@
         <v>48.6693845</v>
       </c>
       <c r="F220">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>19.3</v>
       </c>
@@ -5036,11 +5489,13 @@
         <v>50.496384999999897</v>
       </c>
       <c r="F221">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>82.3</v>
       </c>
@@ -5057,11 +5512,13 @@
         <v>48.819384499999899</v>
       </c>
       <c r="F222">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>20.5</v>
       </c>
@@ -5078,11 +5535,13 @@
         <v>51.469999999999899</v>
       </c>
       <c r="F223">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>5.0999999999999996</v>
       </c>
@@ -5099,11 +5558,13 @@
         <v>5.2455074999999898</v>
       </c>
       <c r="F224">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>12.5</v>
       </c>
@@ -5120,11 +5581,13 @@
         <v>8.3584964999999904</v>
       </c>
       <c r="F225">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>74.2</v>
       </c>
@@ -5141,11 +5604,13 @@
         <v>45.961500000000001</v>
       </c>
       <c r="F226">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>24.5</v>
       </c>
@@ -5162,11 +5627,13 @@
         <v>24.5</v>
       </c>
       <c r="F227">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>81.400000000000006</v>
       </c>
@@ -5183,11 +5650,13 @@
         <v>47.69</v>
       </c>
       <c r="F228">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>25</v>
       </c>
@@ -5204,11 +5673,13 @@
         <v>53.302469499999901</v>
       </c>
       <c r="F229">
-        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="G229">
         <v>-3</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>6.5</v>
       </c>
@@ -5225,11 +5696,13 @@
         <v>9.6935149999999908</v>
       </c>
       <c r="F230">
-        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="G230">
         <v>-1</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>7.1</v>
       </c>
@@ -5246,11 +5719,13 @@
         <v>28.3</v>
       </c>
       <c r="F231">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>76.8</v>
       </c>
@@ -5267,11 +5742,13 @@
         <v>48.642999999999901</v>
       </c>
       <c r="F232">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>27.2</v>
       </c>
@@ -5288,11 +5765,13 @@
         <v>16.8428707113614</v>
       </c>
       <c r="F233">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>92.3</v>
       </c>
@@ -5309,11 +5788,13 @@
         <v>96.149999999999906</v>
       </c>
       <c r="F234">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>15.3</v>
       </c>
@@ -5330,11 +5811,13 @@
         <v>9.7584964999999908</v>
       </c>
       <c r="F235">
-        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="G235">
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>5</v>
       </c>
@@ -5351,11 +5834,13 @@
         <v>8.9435149999999908</v>
       </c>
       <c r="F236">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>5.6</v>
       </c>
@@ -5372,11 +5857,13 @@
         <v>27.549999999999901</v>
       </c>
       <c r="F237">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>75.5</v>
       </c>
@@ -5393,11 +5880,13 @@
         <v>40.4144090725</v>
       </c>
       <c r="F238">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>38.700000000000003</v>
       </c>
@@ -5414,11 +5903,13 @@
         <v>50.199999999999903</v>
       </c>
       <c r="F239">
-        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="G239">
         <v>-1</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>78.8</v>
       </c>
@@ -5435,11 +5926,13 @@
         <v>52.982499999999902</v>
       </c>
       <c r="F240">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>14.1</v>
       </c>
@@ -5456,11 +5949,13 @@
         <v>10.823223</v>
       </c>
       <c r="F241">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>7.1</v>
       </c>
@@ -5477,11 +5972,13 @@
         <v>6.2144090724999996</v>
       </c>
       <c r="F242">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>3.5</v>
       </c>
@@ -5498,11 +5995,13 @@
         <v>39.209499999999899</v>
       </c>
       <c r="F243">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>74.599999999999994</v>
       </c>
@@ -5519,11 +6018,13 @@
         <v>44.308</v>
       </c>
       <c r="F244">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>41.5</v>
       </c>
@@ -5540,11 +6041,13 @@
         <v>60.076499999999903</v>
       </c>
       <c r="F245">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>87.7</v>
       </c>
@@ -5561,11 +6064,13 @@
         <v>51.513569149999903</v>
       </c>
       <c r="F246">
-        <f t="shared" si="7"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G246">
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>29.8</v>
       </c>
@@ -5582,11 +6087,13 @@
         <v>54.649139999999903</v>
       </c>
       <c r="F247">
-        <f t="shared" si="7"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G247">
         <v>-5</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>2.5</v>
       </c>
@@ -5603,11 +6110,13 @@
         <v>3.91440907249999</v>
       </c>
       <c r="F248">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>10.3</v>
       </c>
@@ -5624,11 +6133,13 @@
         <v>42.561649999999901</v>
       </c>
       <c r="F249">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>58.9</v>
       </c>
@@ -5645,11 +6156,13 @@
         <v>46.8</v>
       </c>
       <c r="F250">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>37.4</v>
       </c>
@@ -5666,11 +6179,13 @@
         <v>62.549999999999898</v>
       </c>
       <c r="F251">
-        <f t="shared" si="7"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G251">
         <v>-1</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>83.1</v>
       </c>
@@ -5687,11 +6202,13 @@
         <v>51.7929999999999</v>
       </c>
       <c r="F252">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>34</v>
       </c>
@@ -5708,11 +6225,13 @@
         <v>18.25</v>
       </c>
       <c r="F253">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>10.199999999999999</v>
       </c>
@@ -5729,11 +6248,13 @@
         <v>7.7644090724999897</v>
       </c>
       <c r="F254">
-        <f t="shared" si="7"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G254">
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>4</v>
       </c>
@@ -5750,11 +6271,13 @@
         <v>22.0124999999999</v>
       </c>
       <c r="F255">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>60.7</v>
       </c>
@@ -5771,11 +6294,13 @@
         <v>41.099999999999902</v>
       </c>
       <c r="F256">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>44.2</v>
       </c>
@@ -5792,11 +6317,13 @@
         <v>63.418999999999897</v>
       </c>
       <c r="F257">
-        <f t="shared" si="7"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G257">
         <v>-1</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>73.2</v>
       </c>
@@ -5813,11 +6340,13 @@
         <v>57.444499999999898</v>
       </c>
       <c r="F258">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>42.1</v>
       </c>
@@ -5834,11 +6363,13 @@
         <v>57.636000000000003</v>
       </c>
       <c r="F259">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>5.0999999999999996</v>
       </c>
@@ -5855,11 +6386,13 @@
         <v>4.6259475499999896</v>
       </c>
       <c r="F260">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>6.6</v>
       </c>
@@ -5876,11 +6409,13 @@
         <v>33.615000000000002</v>
       </c>
       <c r="F261">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>40.5</v>
       </c>
@@ -5897,11 +6432,13 @@
         <v>40.5</v>
       </c>
       <c r="F262">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>57.9</v>
       </c>
@@ -5918,11 +6455,13 @@
         <v>47.524000000000001</v>
       </c>
       <c r="F263">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>64.7</v>
       </c>
@@ -5939,11 +6478,13 @@
         <v>64.7</v>
       </c>
       <c r="F264">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>43.5</v>
       </c>
@@ -5960,11 +6501,13 @@
         <v>43.5</v>
       </c>
       <c r="F265">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>5.0999999999999996</v>
       </c>
@@ -5981,11 +6524,13 @@
         <v>5.8100094979530397</v>
       </c>
       <c r="F266">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>6.4</v>
       </c>
@@ -6002,11 +6547,13 @@
         <v>23.283750000000001</v>
       </c>
       <c r="F267">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>32.299999999999997</v>
       </c>
@@ -6023,11 +6570,13 @@
         <v>17.399999999999899</v>
       </c>
       <c r="F268">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>71.7</v>
       </c>
@@ -6044,11 +6593,13 @@
         <v>56.694499999999898</v>
       </c>
       <c r="F269">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>70.8</v>
       </c>
@@ -6065,11 +6616,13 @@
         <v>56.244499999999903</v>
       </c>
       <c r="F270">
-        <f t="shared" si="7"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G270">
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>37.6</v>
       </c>
@@ -6086,11 +6639,13 @@
         <v>21.406060445525</v>
       </c>
       <c r="F271">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>6</v>
       </c>
@@ -6107,11 +6662,13 @@
         <v>6.2420066485671297</v>
       </c>
       <c r="F272">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>7.5</v>
       </c>
@@ -6128,11 +6685,13 @@
         <v>19.899999999999899</v>
       </c>
       <c r="F273">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>22.2</v>
       </c>
@@ -6149,11 +6708,13 @@
         <v>14.269404653996901</v>
       </c>
       <c r="F274">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>83.6</v>
       </c>
@@ -6170,11 +6731,13 @@
         <v>56.442749999999897</v>
       </c>
       <c r="F275">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>59.7</v>
       </c>
@@ -6191,11 +6754,13 @@
         <v>62.4274194999999</v>
       </c>
       <c r="F276">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>43.8</v>
       </c>
@@ -6212,11 +6777,13 @@
         <v>24.506060445524898</v>
       </c>
       <c r="F277">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>16.399999999999999</v>
       </c>
@@ -6233,11 +6800,13 @@
         <v>10.806060445524899</v>
       </c>
       <c r="F278">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>4.5999999999999996</v>
       </c>
@@ -6254,11 +6823,13 @@
         <v>6.0193792699999902</v>
       </c>
       <c r="F279">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>10.199999999999999</v>
       </c>
@@ -6275,11 +6846,13 @@
         <v>34.619999999999898</v>
       </c>
       <c r="F280">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>76.8</v>
       </c>
@@ -6296,11 +6869,13 @@
         <v>51.982499999999902</v>
       </c>
       <c r="F281">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>58.8</v>
       </c>
@@ -6317,11 +6892,13 @@
         <v>51.072499999999899</v>
       </c>
       <c r="F282">
-        <f t="shared" ref="F282:F300" si="8">ROUND((A282-B282)*C282*D282/E282*5.34,0)</f>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G282">
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>59.5</v>
       </c>
@@ -6338,11 +6915,13 @@
         <v>51.4224999999999</v>
       </c>
       <c r="F283">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>4.5999999999999996</v>
       </c>
@@ -6359,11 +6938,13 @@
         <v>7.3728784999999899</v>
       </c>
       <c r="F284">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>8.1999999999999993</v>
       </c>
@@ -6380,11 +6961,13 @@
         <v>42.548265000000001</v>
       </c>
       <c r="F285">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>3.5</v>
       </c>
@@ -6401,11 +6984,13 @@
         <v>21.833749999999899</v>
       </c>
       <c r="F286">
-        <f t="shared" si="8"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G286">
         <v>-1</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>70.5</v>
       </c>
@@ -6422,11 +7007,13 @@
         <v>54.015000000000001</v>
       </c>
       <c r="F287">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>65.099999999999994</v>
       </c>
@@ -6443,11 +7030,13 @@
         <v>51.314999999999898</v>
       </c>
       <c r="F288">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>70.900000000000006</v>
       </c>
@@ -6464,11 +7053,13 @@
         <v>68.019193649999906</v>
       </c>
       <c r="F289">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>8.1999999999999993</v>
       </c>
@@ -6485,11 +7076,13 @@
         <v>6.2902142994999899</v>
       </c>
       <c r="F290">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>2</v>
       </c>
@@ -6506,11 +7099,13 @@
         <v>23.743799999999901</v>
       </c>
       <c r="F291">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>3.6</v>
       </c>
@@ -6527,11 +7122,13 @@
         <v>37.168567151999902</v>
       </c>
       <c r="F292">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>78.2</v>
       </c>
@@ -6548,11 +7145,13 @@
         <v>53.742750000000001</v>
       </c>
       <c r="F293">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>58.2</v>
       </c>
@@ -6569,11 +7168,13 @@
         <v>31.290214299500001</v>
       </c>
       <c r="F294">
-        <f t="shared" si="8"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G294">
         <v>7</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>73.3</v>
       </c>
@@ -6590,11 +7191,13 @@
         <v>66.018799999999899</v>
       </c>
       <c r="F295">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>8.6</v>
       </c>
@@ -6611,11 +7214,13 @@
         <v>27.504999999999999</v>
       </c>
       <c r="F296">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>4.5999999999999996</v>
       </c>
@@ -6632,11 +7237,13 @@
         <v>4.0512800000000002</v>
       </c>
       <c r="F297">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>11.7</v>
       </c>
@@ -6653,11 +7260,13 @@
         <v>7.60128</v>
       </c>
       <c r="F298">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>72.599999999999994</v>
       </c>
@@ -6674,11 +7283,13 @@
         <v>40.547221165587402</v>
       </c>
       <c r="F299">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>61</v>
       </c>
@@ -6695,7 +7306,9 @@
         <v>34.747221165587398</v>
       </c>
       <c r="F300">
-        <f t="shared" si="8"/>
+        <v>6.9594764388500003</v>
+      </c>
+      <c r="G300">
         <v>1</v>
       </c>
     </row>
